--- a/Thesis/files/Data All Users Combined.xlsx
+++ b/Thesis/files/Data All Users Combined.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750" tabRatio="844" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750" tabRatio="844" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="2" r:id="rId1"/>
@@ -50233,7 +50233,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
@@ -62224,8 +62224,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Thesis/files/Data All Users Combined.xlsx
+++ b/Thesis/files/Data All Users Combined.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750" tabRatio="844" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17750" tabRatio="844" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="All Data" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="31">
   <si>
     <t>Precision</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -3040,6 +3043,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4491,6 +4549,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5947,6 +6060,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7398,6 +7566,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8849,6 +9072,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10300,6 +10578,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11751,6 +12084,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13202,6 +13590,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14653,6 +15096,61 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-CH"/>
+                  <a:t>Users sorted by F-Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -27430,15 +27928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>720725</xdr:colOff>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
+      <xdr:colOff>558801</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -48519,8 +49017,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48738,6 +49236,21 @@
       <c r="E10" s="2">
         <v>0.97499999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85947828570194662</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92769132722581416</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89221187171152316</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -50234,7 +50747,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50449,6 +50962,21 @@
       </c>
       <c r="E10" s="2">
         <v>0.97499999999999998</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86340941635586788</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92077894723229803</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89092729626852052</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -51949,7 +52477,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52165,6 +52693,21 @@
       <c r="E10" s="2">
         <v>0.97399999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86784503131975665</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.89333402689152708</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88013562700938053</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -53661,7 +54204,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53879,6 +54422,21 @@
       <c r="E10" s="2">
         <v>0.97399999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86991827751328599</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.89139771612460206</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88024139705254778</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -55375,7 +55933,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E124"/>
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55591,6 +56149,21 @@
       <c r="E10" s="2">
         <v>0.97499999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85907654977163428</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.91443417439205399</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88572662670790858</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -57087,7 +57660,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E124"/>
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57303,6 +57876,21 @@
       <c r="E10" s="2">
         <v>0.97499999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85908874471384566</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92365232421381338</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89013393284819864</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -58799,7 +59387,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E124"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -59017,6 +59605,21 @@
       <c r="E10" s="2">
         <v>0.97499999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.86149502711624948</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.9206993351742141</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88976887847405706</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -60513,7 +61116,7 @@
   <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E124"/>
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60729,6 +61332,21 @@
       <c r="E10" s="2">
         <v>0.97499999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85891734885668414</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92793135183722852</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89215595535599701</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -62224,8 +62842,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -62441,6 +63059,21 @@
       <c r="E10" s="2">
         <v>0.97499999999999998</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
+        <f>HARMEAN(C4:C125)</f>
+        <v>0.85891734885668414</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" ref="I10:J10" si="0">HARMEAN(D4:D125)</f>
+        <v>0.92793135183722852</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.89215595535599701</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
